--- a/Resouce/vocabularySystem.xlsx
+++ b/Resouce/vocabularySystem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="课程体系" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
   <si>
     <t>zero</t>
   </si>
@@ -791,6 +791,36 @@
   </si>
   <si>
     <t>Tempoary Storage</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>eyes</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>dophin</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>seahorse</t>
+  </si>
+  <si>
+    <t>Is is Cute?</t>
+  </si>
+  <si>
+    <t>Are you scared?</t>
+  </si>
+  <si>
+    <t>问答题</t>
+  </si>
+  <si>
+    <t>归纳</t>
   </si>
 </sst>
 </file>
@@ -798,11 +828,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -820,9 +850,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,27 +918,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -878,17 +932,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,14 +942,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -918,16 +956,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,9 +970,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,7 +988,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1063,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1111,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1159,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,157 +1237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,6 +1331,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1312,15 +1351,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,15 +1370,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1360,6 +1381,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,11 +1422,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,10 +1436,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1418,137 +1448,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,46 +1636,37 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1654,7 +1675,19 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1982,13 +2015,13 @@
       <selection activeCell="F29" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="11" width="15.6296296296296" customWidth="1"/>
-    <col min="12" max="12" width="32.3796296296296" customWidth="1"/>
+    <col min="5" max="11" width="15.6333333333333" customWidth="1"/>
+    <col min="12" max="12" width="32.3833333333333" customWidth="1"/>
     <col min="13" max="13" width="55.75" customWidth="1"/>
-    <col min="14" max="44" width="15.6296296296296" customWidth="1"/>
+    <col min="14" max="44" width="15.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -2244,16 +2277,16 @@
       <c r="AN2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="26" t="s">
+      <c r="AP2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="26" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AR2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2354,10 +2387,10 @@
         <v>44</v>
       </c>
       <c r="AN3" s="11"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="30"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="27"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
@@ -2456,10 +2489,10 @@
         <v>61</v>
       </c>
       <c r="AN4" s="11"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="30"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="27"/>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
@@ -2558,10 +2591,10 @@
         <v>32</v>
       </c>
       <c r="AN5" s="11"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="30"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="27"/>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
@@ -2660,10 +2693,10 @@
         <v>97</v>
       </c>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="30"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="27"/>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
@@ -2762,10 +2795,10 @@
         <v>112</v>
       </c>
       <c r="AN7" s="11"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="30"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="27"/>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
@@ -2864,10 +2897,10 @@
         <v>88</v>
       </c>
       <c r="AN8" s="11"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="30"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="27"/>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
@@ -2966,10 +2999,10 @@
         <v>106</v>
       </c>
       <c r="AN9" s="11"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="30"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="27"/>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
@@ -3068,10 +3101,10 @@
         <v>139</v>
       </c>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="30"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="27"/>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
@@ -3170,10 +3203,10 @@
         <v>148</v>
       </c>
       <c r="AN11" s="11"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="30"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="27"/>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
@@ -3272,10 +3305,10 @@
         <v>155</v>
       </c>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="30"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="27"/>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
@@ -3374,10 +3407,10 @@
         <v>163</v>
       </c>
       <c r="AN13" s="11"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="30"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="27"/>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
@@ -3476,10 +3509,10 @@
         <v>177</v>
       </c>
       <c r="AN14" s="11"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="30"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="27"/>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
@@ -3578,10 +3611,10 @@
         <v>191</v>
       </c>
       <c r="AN15" s="11"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="30"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="27"/>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
@@ -3678,10 +3711,10 @@
         <v>193</v>
       </c>
       <c r="AN16" s="11"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="30"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="27"/>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
@@ -3778,10 +3811,10 @@
         <v>215</v>
       </c>
       <c r="AN17" s="11"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="30"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="27"/>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
@@ -3871,10 +3904,10 @@
         <v>218</v>
       </c>
       <c r="AN18" s="11"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="30"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="27"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
@@ -3953,10 +3986,10 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="13"/>
       <c r="AN19" s="11"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="30"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="27"/>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
@@ -4032,10 +4065,10 @@
       <c r="AJ20" s="12"/>
       <c r="AL20" s="13"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="30"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="27"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
@@ -4101,10 +4134,10 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="13"/>
       <c r="AN21" s="11"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="30"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="27"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
@@ -4149,10 +4182,10 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="13"/>
       <c r="AN22" s="11"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="30"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="27"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
@@ -4193,10 +4226,10 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="13"/>
       <c r="AN23" s="11"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="30"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="27"/>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
@@ -4240,10 +4273,10 @@
       <c r="AJ24" s="12"/>
       <c r="AL24" s="13"/>
       <c r="AN24" s="11"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="30"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="27"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="1" t="s">
@@ -4288,10 +4321,10 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="13"/>
       <c r="AN25" s="11"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="29"/>
-      <c r="AR25" s="30"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="27"/>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
@@ -4336,10 +4369,10 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="13"/>
       <c r="AN26" s="11"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="33"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="30"/>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" s="1" t="s">
@@ -4397,7 +4430,7 @@
       <c r="S27" s="10">
         <v>15</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="21">
         <v>16</v>
       </c>
       <c r="U27" s="10">
@@ -4421,7 +4454,7 @@
       <c r="AA27" s="17">
         <v>23</v>
       </c>
-      <c r="AB27" s="24">
+      <c r="AB27" s="21">
         <v>24</v>
       </c>
       <c r="AC27" s="10">
@@ -4445,7 +4478,7 @@
       <c r="AI27" s="10">
         <v>31</v>
       </c>
-      <c r="AJ27" s="24">
+      <c r="AJ27" s="21">
         <v>32</v>
       </c>
       <c r="AK27" s="10">
@@ -4460,16 +4493,16 @@
       <c r="AN27" s="17">
         <v>36</v>
       </c>
-      <c r="AO27" s="34">
+      <c r="AO27" s="31">
         <v>37</v>
       </c>
-      <c r="AP27" s="34">
+      <c r="AP27" s="31">
         <v>38</v>
       </c>
-      <c r="AQ27" s="34">
+      <c r="AQ27" s="31">
         <v>39</v>
       </c>
-      <c r="AR27" s="35">
+      <c r="AR27" s="32">
         <v>40</v>
       </c>
     </row>
@@ -4963,7 +4996,7 @@
       <c r="H43">
         <v>4</v>
       </c>
-      <c r="I43" s="19"/>
+      <c r="I43" s="20"/>
       <c r="J43" t="s">
         <v>8</v>
       </c>
@@ -5014,7 +5047,7 @@
       <c r="H44">
         <v>6</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="2" t="s">
         <v>5</v>
       </c>
@@ -5063,7 +5096,7 @@
       <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="21"/>
+      <c r="I45" s="34"/>
       <c r="J45" s="2" t="s">
         <v>233</v>
       </c>
@@ -5115,7 +5148,7 @@
       <c r="H46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="22"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="2" t="s">
         <v>236</v>
       </c>
@@ -5165,7 +5198,7 @@
       <c r="H47" s="2">
         <v>2</v>
       </c>
-      <c r="I47" s="23"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="2" t="s">
         <v>238</v>
       </c>
@@ -12197,22 +12230,25 @@
   <sheetPr/>
   <dimension ref="A1:AR213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="J43" sqref="J30:J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="20.7333333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="4.5" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="20.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="21.9537037037037" customWidth="1"/>
-    <col min="8" max="8" width="27.1944444444444" customWidth="1"/>
-    <col min="9" max="10" width="15.6296296296296" customWidth="1"/>
-    <col min="11" max="11" width="24.1759259259259" customWidth="1"/>
-    <col min="12" max="12" width="10.9814814814815" customWidth="1"/>
-    <col min="13" max="13" width="25.4351851851852" customWidth="1"/>
-    <col min="14" max="44" width="15.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="20.775" customWidth="1"/>
+    <col min="7" max="7" width="21.95" customWidth="1"/>
+    <col min="8" max="8" width="27.1916666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="11" max="11" width="24.175" customWidth="1"/>
+    <col min="12" max="12" width="10.9833333333333" customWidth="1"/>
+    <col min="13" max="13" width="25.4333333333333" customWidth="1"/>
+    <col min="14" max="44" width="15.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:44">
@@ -12468,16 +12504,16 @@
       <c r="AN2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="26" t="s">
+      <c r="AP2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="26" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AR2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12578,10 +12614,10 @@
         <v>44</v>
       </c>
       <c r="AN3" s="11"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="30"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="27"/>
     </row>
     <row r="4" customFormat="1" spans="1:44">
       <c r="A4" s="1" t="s">
@@ -12680,10 +12716,10 @@
         <v>61</v>
       </c>
       <c r="AN4" s="11"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="30"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="27"/>
     </row>
     <row r="5" customFormat="1" spans="1:44">
       <c r="A5" s="1" t="s">
@@ -12782,10 +12818,10 @@
         <v>32</v>
       </c>
       <c r="AN5" s="11"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="30"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="27"/>
     </row>
     <row r="6" customFormat="1" spans="1:44">
       <c r="A6" s="1" t="s">
@@ -12884,10 +12920,10 @@
         <v>97</v>
       </c>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="30"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="27"/>
     </row>
     <row r="7" customFormat="1" spans="1:44">
       <c r="A7" s="1" t="s">
@@ -12986,10 +13022,10 @@
         <v>112</v>
       </c>
       <c r="AN7" s="11"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="30"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="27"/>
     </row>
     <row r="8" customFormat="1" spans="1:44">
       <c r="A8" s="1" t="s">
@@ -13088,10 +13124,10 @@
         <v>88</v>
       </c>
       <c r="AN8" s="11"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="30"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="27"/>
     </row>
     <row r="9" customFormat="1" spans="1:44">
       <c r="A9" s="1" t="s">
@@ -13190,10 +13226,10 @@
         <v>106</v>
       </c>
       <c r="AN9" s="11"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="30"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="27"/>
     </row>
     <row r="10" customFormat="1" spans="1:44">
       <c r="A10" s="1" t="s">
@@ -13289,10 +13325,10 @@
         <v>139</v>
       </c>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="30"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="27"/>
     </row>
     <row r="11" customFormat="1" spans="1:44">
       <c r="A11" s="1" t="s">
@@ -13391,10 +13427,10 @@
         <v>148</v>
       </c>
       <c r="AN11" s="11"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="30"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="27"/>
     </row>
     <row r="12" customFormat="1" spans="1:44">
       <c r="A12" s="1" t="s">
@@ -13424,9 +13460,6 @@
       <c r="I12" s="11"/>
       <c r="J12" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="1" t="s">
@@ -13493,10 +13526,10 @@
         <v>155</v>
       </c>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="30"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="27"/>
     </row>
     <row r="13" customFormat="1" spans="1:44">
       <c r="A13" s="1" t="s">
@@ -13595,10 +13628,10 @@
         <v>163</v>
       </c>
       <c r="AN13" s="11"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="30"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="27"/>
     </row>
     <row r="14" customFormat="1" spans="1:44">
       <c r="A14" s="1" t="s">
@@ -13697,10 +13730,10 @@
         <v>177</v>
       </c>
       <c r="AN14" s="11"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="30"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="27"/>
     </row>
     <row r="15" customFormat="1" spans="1:44">
       <c r="A15" s="1" t="s">
@@ -13799,10 +13832,10 @@
         <v>191</v>
       </c>
       <c r="AN15" s="11"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="30"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="27"/>
     </row>
     <row r="16" customFormat="1" spans="1:44">
       <c r="A16" s="1" t="s">
@@ -13899,10 +13932,10 @@
         <v>193</v>
       </c>
       <c r="AN16" s="11"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="30"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="27"/>
     </row>
     <row r="17" customFormat="1" spans="1:44">
       <c r="A17" s="1" t="s">
@@ -13996,10 +14029,10 @@
         <v>215</v>
       </c>
       <c r="AN17" s="11"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="30"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="27"/>
     </row>
     <row r="18" customFormat="1" spans="1:44">
       <c r="A18" s="1" t="s">
@@ -14083,10 +14116,10 @@
         <v>218</v>
       </c>
       <c r="AN18" s="11"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="30"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="27"/>
     </row>
     <row r="19" customFormat="1" spans="1:44">
       <c r="A19" s="1" t="s">
@@ -14159,10 +14192,10 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="13"/>
       <c r="AN19" s="11"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="30"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="27"/>
     </row>
     <row r="20" customFormat="1" spans="1:44">
       <c r="A20" s="1" t="s">
@@ -14234,10 +14267,10 @@
       <c r="AJ20" s="12"/>
       <c r="AL20" s="13"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="30"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="27"/>
     </row>
     <row r="21" customFormat="1" spans="1:44">
       <c r="A21" s="1" t="s">
@@ -14301,10 +14334,10 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="13"/>
       <c r="AN21" s="11"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="30"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="27"/>
     </row>
     <row r="22" customFormat="1" spans="1:44">
       <c r="A22" s="1" t="s">
@@ -14350,10 +14383,10 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="13"/>
       <c r="AN22" s="11"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="30"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="27"/>
     </row>
     <row r="23" customFormat="1" spans="1:44">
       <c r="A23" s="1" t="s">
@@ -14395,10 +14428,10 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="13"/>
       <c r="AN23" s="11"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="30"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="27"/>
     </row>
     <row r="24" customFormat="1" spans="1:44">
       <c r="A24" s="1" t="s">
@@ -14443,10 +14476,10 @@
       <c r="AJ24" s="12"/>
       <c r="AL24" s="13"/>
       <c r="AN24" s="11"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="30"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="27"/>
     </row>
     <row r="25" customFormat="1" spans="1:44">
       <c r="A25" s="1" t="s">
@@ -14492,10 +14525,10 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="13"/>
       <c r="AN25" s="11"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="29"/>
-      <c r="AR25" s="30"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="27"/>
     </row>
     <row r="26" customFormat="1" spans="1:44">
       <c r="A26" s="1" t="s">
@@ -14538,10 +14571,10 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="13"/>
       <c r="AN26" s="11"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="33"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="30"/>
     </row>
     <row r="27" customFormat="1" spans="1:44">
       <c r="A27" s="1" t="s">
@@ -14599,7 +14632,7 @@
       <c r="S27" s="10">
         <v>15</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="21">
         <v>16</v>
       </c>
       <c r="U27" s="10">
@@ -14623,7 +14656,7 @@
       <c r="AA27" s="17">
         <v>23</v>
       </c>
-      <c r="AB27" s="24">
+      <c r="AB27" s="21">
         <v>24</v>
       </c>
       <c r="AC27" s="10">
@@ -14647,7 +14680,7 @@
       <c r="AI27" s="10">
         <v>31</v>
       </c>
-      <c r="AJ27" s="24">
+      <c r="AJ27" s="21">
         <v>32</v>
       </c>
       <c r="AK27" s="10">
@@ -14662,16 +14695,16 @@
       <c r="AN27" s="17">
         <v>36</v>
       </c>
-      <c r="AO27" s="34">
+      <c r="AO27" s="31">
         <v>37</v>
       </c>
-      <c r="AP27" s="34">
+      <c r="AP27" s="31">
         <v>38</v>
       </c>
-      <c r="AQ27" s="34">
+      <c r="AQ27" s="31">
         <v>39</v>
       </c>
-      <c r="AR27" s="35">
+      <c r="AR27" s="32">
         <v>40</v>
       </c>
     </row>
@@ -14755,6 +14788,9 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="2"/>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -14784,6 +14820,9 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="2"/>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
       <c r="L31" t="s">
         <v>224</v>
       </c>
@@ -14823,6 +14862,9 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="2"/>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -14853,6 +14895,9 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="2"/>
+      <c r="J33" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="M33" t="s">
         <v>257</v>
       </c>
@@ -14886,6 +14931,9 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="2"/>
+      <c r="J34" t="s">
+        <v>112</v>
+      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -14917,6 +14965,9 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="2"/>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -14948,6 +14999,9 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="2"/>
+      <c r="J36" t="s">
+        <v>258</v>
+      </c>
       <c r="M36" s="8" t="s">
         <v>155</v>
       </c>
@@ -14985,6 +15039,9 @@
       <c r="H37" s="8" t="s">
         <v>177</v>
       </c>
+      <c r="J37" t="s">
+        <v>259</v>
+      </c>
       <c r="M37" s="8" t="s">
         <v>163</v>
       </c>
@@ -15022,6 +15079,9 @@
       <c r="H38" s="8" t="s">
         <v>191</v>
       </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -15056,6 +15116,9 @@
       <c r="H39" s="8" t="s">
         <v>158</v>
       </c>
+      <c r="J39" t="s">
+        <v>260</v>
+      </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -15087,6 +15150,9 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="2"/>
+      <c r="J40" t="s">
+        <v>261</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -15118,6 +15184,9 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="2"/>
+      <c r="J41" t="s">
+        <v>262</v>
+      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -15155,6 +15224,9 @@
       <c r="G42" t="s">
         <v>228</v>
       </c>
+      <c r="J42" t="s">
+        <v>263</v>
+      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -15188,23 +15260,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43" s="19"/>
       <c r="J43" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" t="s">
-        <v>229</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>264</v>
+      </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -15239,21 +15297,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" t="s">
-        <v>232</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O44" s="2"/>
+      <c r="J44" t="s">
+        <v>203</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -15288,24 +15334,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O45" s="2"/>
+      <c r="J45" t="s">
+        <v>265</v>
+      </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -15340,22 +15371,9 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2">
-        <v>3</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O46" s="2"/>
+      <c r="J46" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -15390,22 +15408,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2">
-        <v>2</v>
-      </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="J47" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
         <v>231</v>
@@ -15442,19 +15447,6 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2">
-        <v>24</v>
-      </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K48" t="s">
-        <v>242</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
       <c r="P48" s="2" t="s">
         <v>231</v>
       </c>
@@ -15491,7 +15483,6 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -15526,14 +15517,6 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -15568,14 +15551,6 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
@@ -15610,14 +15585,6 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -15652,18 +15619,6 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -15698,14 +15653,6 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -15740,14 +15687,6 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -16118,13 +16057,22 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
+        <v>229</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -16160,13 +16108,20 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="J65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K65" t="s">
+        <v>232</v>
+      </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -16202,13 +16157,23 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="34"/>
+      <c r="J66" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -16244,13 +16209,21 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="35"/>
+      <c r="J67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -16286,12 +16259,20 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" s="36"/>
+      <c r="J68" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="M68" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -16328,11 +16309,16 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="H69" s="2">
+        <v>24</v>
+      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K69" t="s">
+        <v>242</v>
+      </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -16370,13 +16356,6 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -16539,8 +16518,12 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -16621,7 +16604,9 @@
       <c r="D76" s="9"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -17839,7 +17824,9 @@
       <c r="D105" s="9"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>

--- a/Resouce/vocabularySystem.xlsx
+++ b/Resouce/vocabularySystem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13635" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="课程体系" sheetId="2" r:id="rId1"/>
@@ -828,11 +828,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -851,46 +851,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,73 +859,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,8 +873,114 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,31 +1069,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,13 +1117,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,73 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,13 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,25 +1195,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,11 +1331,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,17 +1361,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,46 +1414,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,10 +1436,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1448,137 +1448,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1634,9 +1634,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
@@ -2277,16 +2274,16 @@
       <c r="AN2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="23" t="s">
+      <c r="AP2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AQ2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="23" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2387,10 +2384,10 @@
         <v>44</v>
       </c>
       <c r="AN3" s="11"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="27"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="26"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
@@ -2489,10 +2486,10 @@
         <v>61</v>
       </c>
       <c r="AN4" s="11"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="27"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="26"/>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
@@ -2591,10 +2588,10 @@
         <v>32</v>
       </c>
       <c r="AN5" s="11"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="27"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="26"/>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
@@ -2693,10 +2690,10 @@
         <v>97</v>
       </c>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="27"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="26"/>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
@@ -2795,10 +2792,10 @@
         <v>112</v>
       </c>
       <c r="AN7" s="11"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="27"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="26"/>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
@@ -2897,10 +2894,10 @@
         <v>88</v>
       </c>
       <c r="AN8" s="11"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="27"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="26"/>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
@@ -2999,10 +2996,10 @@
         <v>106</v>
       </c>
       <c r="AN9" s="11"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="27"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="26"/>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
@@ -3101,10 +3098,10 @@
         <v>139</v>
       </c>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="27"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="26"/>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
@@ -3203,10 +3200,10 @@
         <v>148</v>
       </c>
       <c r="AN11" s="11"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="27"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="26"/>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
@@ -3305,10 +3302,10 @@
         <v>155</v>
       </c>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="27"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="26"/>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
@@ -3407,10 +3404,10 @@
         <v>163</v>
       </c>
       <c r="AN13" s="11"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="27"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="26"/>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
@@ -3509,10 +3506,10 @@
         <v>177</v>
       </c>
       <c r="AN14" s="11"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="27"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="26"/>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
@@ -3611,10 +3608,10 @@
         <v>191</v>
       </c>
       <c r="AN15" s="11"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="27"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="26"/>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
@@ -3711,10 +3708,10 @@
         <v>193</v>
       </c>
       <c r="AN16" s="11"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="27"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="26"/>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
@@ -3811,10 +3808,10 @@
         <v>215</v>
       </c>
       <c r="AN17" s="11"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="27"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="26"/>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
@@ -3904,10 +3901,10 @@
         <v>218</v>
       </c>
       <c r="AN18" s="11"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="27"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="26"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
@@ -3986,10 +3983,10 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="13"/>
       <c r="AN19" s="11"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="27"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="26"/>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
@@ -4065,10 +4062,10 @@
       <c r="AJ20" s="12"/>
       <c r="AL20" s="13"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="27"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="26"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
@@ -4134,10 +4131,10 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="13"/>
       <c r="AN21" s="11"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="27"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="26"/>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
@@ -4182,10 +4179,10 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="13"/>
       <c r="AN22" s="11"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="27"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="26"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
@@ -4226,10 +4223,10 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="13"/>
       <c r="AN23" s="11"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="27"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="26"/>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
@@ -4273,10 +4270,10 @@
       <c r="AJ24" s="12"/>
       <c r="AL24" s="13"/>
       <c r="AN24" s="11"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="27"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="26"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="1" t="s">
@@ -4321,10 +4318,10 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="13"/>
       <c r="AN25" s="11"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="27"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="26"/>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
@@ -4369,10 +4366,10 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="13"/>
       <c r="AN26" s="11"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="30"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="29"/>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" s="1" t="s">
@@ -4430,7 +4427,7 @@
       <c r="S27" s="10">
         <v>15</v>
       </c>
-      <c r="T27" s="21">
+      <c r="T27" s="20">
         <v>16</v>
       </c>
       <c r="U27" s="10">
@@ -4454,7 +4451,7 @@
       <c r="AA27" s="17">
         <v>23</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB27" s="20">
         <v>24</v>
       </c>
       <c r="AC27" s="10">
@@ -4478,7 +4475,7 @@
       <c r="AI27" s="10">
         <v>31</v>
       </c>
-      <c r="AJ27" s="21">
+      <c r="AJ27" s="20">
         <v>32</v>
       </c>
       <c r="AK27" s="10">
@@ -4493,16 +4490,16 @@
       <c r="AN27" s="17">
         <v>36</v>
       </c>
-      <c r="AO27" s="31">
+      <c r="AO27" s="30">
         <v>37</v>
       </c>
-      <c r="AP27" s="31">
+      <c r="AP27" s="30">
         <v>38</v>
       </c>
-      <c r="AQ27" s="31">
+      <c r="AQ27" s="30">
         <v>39</v>
       </c>
-      <c r="AR27" s="32">
+      <c r="AR27" s="31">
         <v>40</v>
       </c>
     </row>
@@ -4996,7 +4993,7 @@
       <c r="H43">
         <v>4</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="19"/>
       <c r="J43" t="s">
         <v>8</v>
       </c>
@@ -5047,7 +5044,7 @@
       <c r="H44">
         <v>6</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="2" t="s">
         <v>5</v>
       </c>
@@ -5096,7 +5093,7 @@
       <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="34"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="2" t="s">
         <v>233</v>
       </c>
@@ -5148,7 +5145,7 @@
       <c r="H46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="35"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="2" t="s">
         <v>236</v>
       </c>
@@ -5198,7 +5195,7 @@
       <c r="H47" s="2">
         <v>2</v>
       </c>
-      <c r="I47" s="36"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="2" t="s">
         <v>238</v>
       </c>
@@ -12230,8 +12227,8 @@
   <sheetPr/>
   <dimension ref="A1:AR213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="J43" sqref="J30:J43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="D13:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12242,10 +12239,10 @@
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="20.775" customWidth="1"/>
     <col min="7" max="7" width="21.95" customWidth="1"/>
-    <col min="8" max="8" width="27.1916666666667" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="15.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-    <col min="11" max="11" width="24.175" customWidth="1"/>
+    <col min="10" max="10" width="26.125" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
     <col min="12" max="12" width="10.9833333333333" customWidth="1"/>
     <col min="13" max="13" width="25.4333333333333" customWidth="1"/>
     <col min="14" max="44" width="15.6333333333333" customWidth="1"/>
@@ -12504,16 +12501,16 @@
       <c r="AN2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="23" t="s">
+      <c r="AP2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AQ2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="23" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12614,10 +12611,10 @@
         <v>44</v>
       </c>
       <c r="AN3" s="11"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="27"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="26"/>
     </row>
     <row r="4" customFormat="1" spans="1:44">
       <c r="A4" s="1" t="s">
@@ -12716,10 +12713,10 @@
         <v>61</v>
       </c>
       <c r="AN4" s="11"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="27"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="26"/>
     </row>
     <row r="5" customFormat="1" spans="1:44">
       <c r="A5" s="1" t="s">
@@ -12818,10 +12815,10 @@
         <v>32</v>
       </c>
       <c r="AN5" s="11"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="27"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="26"/>
     </row>
     <row r="6" customFormat="1" spans="1:44">
       <c r="A6" s="1" t="s">
@@ -12920,10 +12917,10 @@
         <v>97</v>
       </c>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="27"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="26"/>
     </row>
     <row r="7" customFormat="1" spans="1:44">
       <c r="A7" s="1" t="s">
@@ -13022,10 +13019,10 @@
         <v>112</v>
       </c>
       <c r="AN7" s="11"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="27"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="26"/>
     </row>
     <row r="8" customFormat="1" spans="1:44">
       <c r="A8" s="1" t="s">
@@ -13124,10 +13121,10 @@
         <v>88</v>
       </c>
       <c r="AN8" s="11"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="27"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="26"/>
     </row>
     <row r="9" customFormat="1" spans="1:44">
       <c r="A9" s="1" t="s">
@@ -13226,10 +13223,10 @@
         <v>106</v>
       </c>
       <c r="AN9" s="11"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="27"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="26"/>
     </row>
     <row r="10" customFormat="1" spans="1:44">
       <c r="A10" s="1" t="s">
@@ -13325,10 +13322,10 @@
         <v>139</v>
       </c>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="27"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="26"/>
     </row>
     <row r="11" customFormat="1" spans="1:44">
       <c r="A11" s="1" t="s">
@@ -13427,10 +13424,10 @@
         <v>148</v>
       </c>
       <c r="AN11" s="11"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="27"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="26"/>
     </row>
     <row r="12" customFormat="1" spans="1:44">
       <c r="A12" s="1" t="s">
@@ -13526,10 +13523,10 @@
         <v>155</v>
       </c>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="27"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="26"/>
     </row>
     <row r="13" customFormat="1" spans="1:44">
       <c r="A13" s="1" t="s">
@@ -13628,10 +13625,10 @@
         <v>163</v>
       </c>
       <c r="AN13" s="11"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="27"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="26"/>
     </row>
     <row r="14" customFormat="1" spans="1:44">
       <c r="A14" s="1" t="s">
@@ -13730,10 +13727,10 @@
         <v>177</v>
       </c>
       <c r="AN14" s="11"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="27"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="26"/>
     </row>
     <row r="15" customFormat="1" spans="1:44">
       <c r="A15" s="1" t="s">
@@ -13832,10 +13829,10 @@
         <v>191</v>
       </c>
       <c r="AN15" s="11"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="27"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="26"/>
     </row>
     <row r="16" customFormat="1" spans="1:44">
       <c r="A16" s="1" t="s">
@@ -13932,10 +13929,10 @@
         <v>193</v>
       </c>
       <c r="AN16" s="11"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="27"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="26"/>
     </row>
     <row r="17" customFormat="1" spans="1:44">
       <c r="A17" s="1" t="s">
@@ -14029,10 +14026,10 @@
         <v>215</v>
       </c>
       <c r="AN17" s="11"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="27"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="26"/>
     </row>
     <row r="18" customFormat="1" spans="1:44">
       <c r="A18" s="1" t="s">
@@ -14116,10 +14113,10 @@
         <v>218</v>
       </c>
       <c r="AN18" s="11"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="27"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="26"/>
     </row>
     <row r="19" customFormat="1" spans="1:44">
       <c r="A19" s="1" t="s">
@@ -14192,10 +14189,10 @@
       <c r="AJ19" s="12"/>
       <c r="AL19" s="13"/>
       <c r="AN19" s="11"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="27"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="26"/>
     </row>
     <row r="20" customFormat="1" spans="1:44">
       <c r="A20" s="1" t="s">
@@ -14267,10 +14264,10 @@
       <c r="AJ20" s="12"/>
       <c r="AL20" s="13"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="27"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="26"/>
     </row>
     <row r="21" customFormat="1" spans="1:44">
       <c r="A21" s="1" t="s">
@@ -14334,10 +14331,10 @@
       <c r="AJ21" s="12"/>
       <c r="AL21" s="13"/>
       <c r="AN21" s="11"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="27"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="26"/>
     </row>
     <row r="22" customFormat="1" spans="1:44">
       <c r="A22" s="1" t="s">
@@ -14383,10 +14380,10 @@
       <c r="AJ22" s="12"/>
       <c r="AL22" s="13"/>
       <c r="AN22" s="11"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="27"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="26"/>
     </row>
     <row r="23" customFormat="1" spans="1:44">
       <c r="A23" s="1" t="s">
@@ -14428,10 +14425,10 @@
       <c r="AJ23" s="12"/>
       <c r="AL23" s="13"/>
       <c r="AN23" s="11"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="27"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="26"/>
     </row>
     <row r="24" customFormat="1" spans="1:44">
       <c r="A24" s="1" t="s">
@@ -14476,10 +14473,10 @@
       <c r="AJ24" s="12"/>
       <c r="AL24" s="13"/>
       <c r="AN24" s="11"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="27"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="26"/>
     </row>
     <row r="25" customFormat="1" spans="1:44">
       <c r="A25" s="1" t="s">
@@ -14525,10 +14522,10 @@
       <c r="AJ25" s="12"/>
       <c r="AL25" s="13"/>
       <c r="AN25" s="11"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="27"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="26"/>
     </row>
     <row r="26" customFormat="1" spans="1:44">
       <c r="A26" s="1" t="s">
@@ -14571,10 +14568,10 @@
       <c r="AJ26" s="12"/>
       <c r="AL26" s="13"/>
       <c r="AN26" s="11"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="30"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="29"/>
     </row>
     <row r="27" customFormat="1" spans="1:44">
       <c r="A27" s="1" t="s">
@@ -14632,7 +14629,7 @@
       <c r="S27" s="10">
         <v>15</v>
       </c>
-      <c r="T27" s="21">
+      <c r="T27" s="20">
         <v>16</v>
       </c>
       <c r="U27" s="10">
@@ -14656,7 +14653,7 @@
       <c r="AA27" s="17">
         <v>23</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB27" s="20">
         <v>24</v>
       </c>
       <c r="AC27" s="10">
@@ -14680,7 +14677,7 @@
       <c r="AI27" s="10">
         <v>31</v>
       </c>
-      <c r="AJ27" s="21">
+      <c r="AJ27" s="20">
         <v>32</v>
       </c>
       <c r="AK27" s="10">
@@ -14695,16 +14692,16 @@
       <c r="AN27" s="17">
         <v>36</v>
       </c>
-      <c r="AO27" s="31">
+      <c r="AO27" s="30">
         <v>37</v>
       </c>
-      <c r="AP27" s="31">
+      <c r="AP27" s="30">
         <v>38</v>
       </c>
-      <c r="AQ27" s="31">
+      <c r="AQ27" s="30">
         <v>39</v>
       </c>
-      <c r="AR27" s="32">
+      <c r="AR27" s="31">
         <v>40</v>
       </c>
     </row>
@@ -14895,7 +14892,7 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="2"/>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="2" t="s">
         <v>108</v>
       </c>
       <c r="M33" t="s">
@@ -16060,7 +16057,7 @@
       <c r="H64">
         <v>4</v>
       </c>
-      <c r="I64" s="20"/>
+      <c r="I64" s="19"/>
       <c r="J64" t="s">
         <v>8</v>
       </c>
@@ -16111,7 +16108,7 @@
       <c r="H65">
         <v>6</v>
       </c>
-      <c r="I65" s="33"/>
+      <c r="I65" s="32"/>
       <c r="J65" s="2" t="s">
         <v>5</v>
       </c>
@@ -16160,7 +16157,7 @@
       <c r="H66" s="2">
         <v>1</v>
       </c>
-      <c r="I66" s="34"/>
+      <c r="I66" s="33"/>
       <c r="J66" s="2" t="s">
         <v>233</v>
       </c>
@@ -16212,7 +16209,7 @@
       <c r="H67" s="2">
         <v>3</v>
       </c>
-      <c r="I67" s="35"/>
+      <c r="I67" s="34"/>
       <c r="J67" s="2" t="s">
         <v>236</v>
       </c>
@@ -16262,7 +16259,7 @@
       <c r="H68" s="2">
         <v>2</v>
       </c>
-      <c r="I68" s="36"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="2" t="s">
         <v>238</v>
       </c>
